--- a/20170712-mnrecovery/builds/development/data/maindata.xlsx
+++ b/20170712-mnrecovery/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="32640" windowHeight="19500" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="32640" windowHeight="19500" tabRatio="500" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="adjusted" sheetId="13" r:id="rId11"/>
     <sheet name="DIFF" sheetId="16" r:id="rId12"/>
     <sheet name="source" sheetId="8" r:id="rId13"/>
+    <sheet name="layout" sheetId="21" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">personal_income!$A$1:$AY$270</definedName>
@@ -14355,7 +14356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -14565,6 +14566,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
